--- a/R/bulk_input_arf.xlsx
+++ b/R/bulk_input_arf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\GitHub\GASImpactModel\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E290B8-F00F-40CB-B10D-3EC854E61D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9FF951-1B27-4BA7-9B4C-D3C109E59E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3270" yWindow="-29250" windowWidth="43200" windowHeight="23295" xr2:uid="{C881E95F-BD69-473D-B83E-62708E602ACA}"/>
+    <workbookView xWindow="-3000" yWindow="-30930" windowWidth="43200" windowHeight="23295" xr2:uid="{C881E95F-BD69-473D-B83E-62708E602ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Scenario</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>Acute Rheumatic Fever</t>
+  </si>
+  <si>
+    <t>Shift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,7 +90,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,9 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9155C5-53DE-4C0B-8C9F-43645157CC45}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -478,37 +489,422 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-      <c r="J2">
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2">
         <v>2022</v>
       </c>
-      <c r="K2">
+      <c r="K4" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2022</v>
+      </c>
+      <c r="K5" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>50</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>50</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="K10" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="K11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>50</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2">
         <v>30</v>
       </c>
     </row>
